--- a/Docs/Tiempos Reto 2.xlsx
+++ b/Docs/Tiempos Reto 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgril\Desktop\programar\proyectos\Reto2-INTER-G05\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A770E4-6F09-4062-9DAB-99670A771C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0F093-47B1-42A2-8D46-7684DA71F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos " sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="REQ4" sheetId="11" r:id="rId4"/>
     <sheet name="Bono" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>Porcentaje de la muestra [pct]</t>
   </si>
@@ -91,12 +89,81 @@
   <si>
     <t>Bono [ms]</t>
   </si>
+  <si>
+    <t>REQ 3</t>
+  </si>
+  <si>
+    <t>REQ 5</t>
+  </si>
+  <si>
+    <t>req 3</t>
+  </si>
+  <si>
+    <t>req 5</t>
+  </si>
+  <si>
+    <t>60.34</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>281.25</t>
+  </si>
+  <si>
+    <t>5625.0</t>
+  </si>
+  <si>
+    <t>3234.34</t>
+  </si>
+  <si>
+    <t>2940.50</t>
+  </si>
+  <si>
+    <t>2060.6</t>
+  </si>
+  <si>
+    <t>40.79</t>
+  </si>
+  <si>
+    <t>2375.0</t>
+  </si>
+  <si>
+    <t>890.25</t>
+  </si>
+  <si>
+    <t>875.0</t>
+  </si>
+  <si>
+    <t>5624.0</t>
+  </si>
+  <si>
+    <t>281 , 25</t>
+  </si>
+  <si>
+    <t>890 , 25</t>
+  </si>
+  <si>
+    <t>15468 , 75</t>
+  </si>
+  <si>
+    <t>1500 , 0</t>
+  </si>
+  <si>
+    <t>2500.78</t>
+  </si>
+  <si>
+    <t>2500 , 78</t>
+  </si>
+  <si>
+    <t>2940 , 50</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +179,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Dax-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dax-Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Dax-Regular"/>
     </font>
   </fonts>
@@ -135,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -162,6 +241,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +491,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -473,7 +558,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -560,7 +645,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -731,7 +816,7 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:defRPr>
                         </a:pPr>
-                        <a:endParaRPr lang="en-US"/>
+                        <a:endParaRPr lang="es-CO"/>
                       </a:p>
                     </c:txPr>
                   </c:trendlineLbl>
@@ -760,7 +845,7 @@
                         <c:v>Bono(1900-2000)</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.00%</c:v>
+                        <c:v>5,00%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -880,7 +965,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -918,7 +1003,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -997,7 +1082,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1035,7 +1120,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -1077,7 +1162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1114,7 +1199,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1123,7 +1208,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1190,7 +1275,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1277,7 +1362,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1448,7 +1533,7 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:defRPr>
                         </a:pPr>
-                        <a:endParaRPr lang="en-US"/>
+                        <a:endParaRPr lang="es-CO"/>
                       </a:p>
                     </c:txPr>
                   </c:trendlineLbl>
@@ -1477,7 +1562,7 @@
                         <c:v>Bono(1900-2000)</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.00%</c:v>
+                        <c:v>5,00%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1597,7 +1682,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1635,7 +1720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -1714,7 +1799,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1752,7 +1837,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -1794,7 +1879,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1831,7 +1916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1840,7 +1925,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1915,7 +2000,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2003,7 +2088,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2174,7 +2259,7 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:defRPr>
                         </a:pPr>
-                        <a:endParaRPr lang="en-US"/>
+                        <a:endParaRPr lang="es-CO"/>
                       </a:p>
                     </c:txPr>
                   </c:trendlineLbl>
@@ -2203,7 +2288,7 @@
                         <c:v>Bono(1900-2000)</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.00%</c:v>
+                        <c:v>5,00%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2311,7 +2396,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2349,7 +2434,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -2428,7 +2513,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2466,7 +2551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -2508,7 +2593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2545,7 +2630,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2554,7 +2639,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2629,7 +2714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2723,7 +2808,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2895,7 +2980,7 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:defRPr>
                         </a:pPr>
-                        <a:endParaRPr lang="en-US"/>
+                        <a:endParaRPr lang="es-CO"/>
                       </a:p>
                     </c:txPr>
                   </c:trendlineLbl>
@@ -2924,7 +3009,7 @@
                         <c:v>Bono(1900-2000)</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.00%</c:v>
+                        <c:v>5,00%</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2941,6 +3026,12 @@
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="8"/>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -3032,7 +3123,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3070,7 +3161,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3149,7 +3240,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3187,7 +3278,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3229,7 +3320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3266,7 +3357,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5691,7 +5782,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5987,23 +6078,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="27.6">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6025,8 +6116,14 @@
       <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6051,8 +6148,14 @@
         <v>213.54166666666666</v>
       </c>
       <c r="G2" s="4"/>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -6077,8 +6180,14 @@
         <v>901.04166666666663</v>
       </c>
       <c r="G3" s="4"/>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -6103,8 +6212,14 @@
         <v>1531.25</v>
       </c>
       <c r="G4" s="4"/>
+      <c r="I4" s="11">
+        <v>15625</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>0.2</v>
       </c>
@@ -6129,8 +6244,14 @@
         <v>2453.125</v>
       </c>
       <c r="G5" s="4"/>
+      <c r="I5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>459</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>0.3</v>
       </c>
@@ -6155,8 +6276,14 @@
         <v>2479.1666666666665</v>
       </c>
       <c r="G6" s="4"/>
+      <c r="I6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>0.5</v>
       </c>
@@ -6181,8 +6308,14 @@
         <v>3031.24</v>
       </c>
       <c r="G7" s="4"/>
+      <c r="I7" s="11">
+        <v>3203</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13">
       <c r="A8" s="5">
         <v>0.8</v>
       </c>
@@ -6207,8 +6340,14 @@
         <v>3687.5</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="I8">
+        <v>4960</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:13">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -6233,8 +6372,14 @@
         <v>4317.708333333333</v>
       </c>
       <c r="G9" s="4"/>
+      <c r="I9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="13.8">
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="14.25">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -6243,8 +6388,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+      <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
@@ -6252,7 +6398,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -6266,9 +6412,20 @@
         <v>15.625</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -6282,9 +6439,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -6300,7 +6468,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -6316,7 +6484,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:9">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
@@ -6324,7 +6492,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>0.05</v>
       </c>
@@ -6334,7 +6502,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
@@ -6342,7 +6510,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -6355,8 +6523,20 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -6369,8 +6549,20 @@
       <c r="D22" s="2">
         <v>46.875</v>
       </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
@@ -6384,7 +6576,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -6398,12 +6590,12 @@
         <v>890.625</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:9">
       <c r="A27" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -6416,8 +6608,20 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="11">
+        <v>15625</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>15625</v>
+      </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -6430,8 +6634,20 @@
       <c r="D30" s="2">
         <v>78.125</v>
       </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
@@ -6445,7 +6661,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -6459,12 +6675,12 @@
         <v>1515.625</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:9">
       <c r="A35" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
@@ -6477,8 +6693,20 @@
       <c r="D37" s="2">
         <v>15.625</v>
       </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
@@ -6491,8 +6719,20 @@
       <c r="D38" s="2">
         <v>156.25</v>
       </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2">
+        <v>459</v>
+      </c>
+      <c r="H38">
+        <v>459</v>
+      </c>
+      <c r="I38">
+        <v>459</v>
+      </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
@@ -6506,7 +6746,7 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -6520,12 +6760,12 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:9">
       <c r="A43" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
         <v>6</v>
       </c>
@@ -6538,8 +6778,20 @@
       <c r="D45" s="2">
         <v>15.625</v>
       </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
@@ -6552,8 +6804,20 @@
       <c r="D46" s="2">
         <v>234.375</v>
       </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="11">
+        <v>890625</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -6567,7 +6831,7 @@
         <v>15.625</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
@@ -6581,12 +6845,12 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:9">
       <c r="A51" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -6599,8 +6863,20 @@
       <c r="D53" s="2">
         <v>15.625</v>
       </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="11">
+        <v>3203.125</v>
+      </c>
+      <c r="H53" s="11">
+        <v>3203.125</v>
+      </c>
+      <c r="I53">
+        <v>3203.125</v>
+      </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
@@ -6613,8 +6889,20 @@
       <c r="D54" s="2">
         <v>375</v>
       </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
@@ -6628,7 +6916,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
         <v>11</v>
       </c>
@@ -6642,12 +6930,12 @@
         <v>3093.72</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:9">
       <c r="A60" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:9">
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
@@ -6660,8 +6948,20 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <v>4960</v>
+      </c>
+      <c r="H62">
+        <v>4960</v>
+      </c>
+      <c r="I62">
+        <v>4960</v>
+      </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:9">
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
@@ -6674,8 +6974,20 @@
       <c r="D63" s="2">
         <v>734.375</v>
       </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:9">
       <c r="A64" s="5" t="s">
         <v>8</v>
       </c>
@@ -6689,7 +7001,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:9">
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
@@ -6703,12 +7015,12 @@
         <v>3718.75</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:9">
       <c r="A70" s="5" t="s">
         <v>6</v>
       </c>
@@ -6721,8 +7033,20 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
@@ -6735,8 +7059,20 @@
       <c r="D71" s="2">
         <v>796.78499999999997</v>
       </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +7086,7 @@
         <v>46.875</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
         <v>11</v>
       </c>
@@ -6764,13 +7100,13 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:9">
       <c r="A78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:9">
       <c r="A79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:9">
       <c r="A80" s="9"/>
     </row>
     <row r="81" spans="1:1">
@@ -6800,115 +7136,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6ca5caf3e573104b48cd489fb7ebf238">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8ff97dc266d6a6a16fe4e7cad907b60" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -7125,6 +7352,115 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
@@ -7134,23 +7470,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7167,4 +7486,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>